--- a/data/LSR2_SoE_250324.xlsx
+++ b/data/LSR2_SoE_250324.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\Github rep\LSR2_exercise_H\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F21E36-00DE-46D2-9590-0A6B2553A126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFC6397-1481-4F8F-86F0-2280C54E4F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24900" yWindow="1050" windowWidth="18660" windowHeight="8970" xr2:uid="{A2E53831-9D55-43E0-AA29-1DC195D7F9AA}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23688" windowHeight="13284" xr2:uid="{A2E53831-9D55-43E0-AA29-1DC195D7F9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Source of evidence</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Lack of blinding of participants and outcomes assessors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It appears that the smaller studies showed larger effects favouring the intervention. </t>
   </si>
 </sst>
 </file>
@@ -101,8 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,53 +446,54 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/LSR2_SoE_250324.xlsx
+++ b/data/LSR2_SoE_250324.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\Github rep\LSR2_exercise_H\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFC6397-1481-4F8F-86F0-2280C54E4F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE873A23-B7FA-46BF-BC09-51EDCF799D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23688" windowHeight="13284" xr2:uid="{A2E53831-9D55-43E0-AA29-1DC195D7F9AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2E53831-9D55-43E0-AA29-1DC195D7F9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,39 +36,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Source of evidence</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Summary of the association</t>
   </si>
   <si>
-    <t>Bias due to study limitations</t>
-  </si>
-  <si>
-    <t>Bias due to reporting bias</t>
-  </si>
-  <si>
-    <t>Bias due to indirectedness</t>
-  </si>
-  <si>
-    <t>Bias due to other reasons</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Exercise intervention vs comparison group</t>
-  </si>
-  <si>
-    <t>n = 9 , k = 700 , SMD = -0.08, 95%CI: -0.24, 0.07</t>
-  </si>
-  <si>
-    <t>Overall, five studies were rated as high, three studies as some concerns, and one was rated as low risk of bias. High risk of bias due to to deviations from intended intervention, missing outcome data, and selection of reported results.</t>
-  </si>
-  <si>
-    <t>Lack of blinding of participants and outcomes assessors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It appears that the smaller studies showed larger effects favouring the intervention. </t>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>Within-study biases</t>
+  </si>
+  <si>
+    <t>Across-studies biases</t>
+  </si>
+  <si>
+    <t>Indirectness</t>
+  </si>
+  <si>
+    <t>Other Bias</t>
+  </si>
+  <si>
+    <t>PTSD symptom severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studies = 8 (9 comparisons), 
+Participants = 700;
+Random effects: SMD = -0.08, 95%CI: -0.24, 0.07
+Low to no statistical heterogeneity. 
+We found some evidence that the effect of exercise might be larger in studies of high-intensity exercise compared to studies with moderate intensity; and that studies with exercise alone as intervention were associated with larger effects than those in studies where patients were additionally given treatment-as-usual or psychotherapy.
+We did not find evidence of differences between the effects of aerobic, anaerobic, or mixed exercise groups; or that intervention duration (in weeks) was related to post-intervention PTSD symptom severity. </t>
+  </si>
+  <si>
+    <t>High risk
+Overall, 5 studies had high risk of bias, for 3 studies we had some concerns, and 1 had a low risk of bias.
+Bias was mainly due to deviations from the intended intervention, missing outcome data, and selection of reported results. We expect that the bias exaggerates the effect of the intervention.</t>
+  </si>
+  <si>
+    <t>High risk
+It appears that the smaller studies showed larger effects favouring the intervention. Possibly the effect of exercise is exaggerated.
+Small number of studies per subgroup
+Data from only 9 studies. Additionally, studies may change these findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some concerns
+Participants
+Some concerns (no data for child and adolescence. Only adults
+Intervention: 
+Some concern (evidence of a larger effect for high-intensity compared to moderate-intensity exercise)
+Control: 
+Some concern (some evidence of a difference between exercise alone compared with those with exercise in addition to psychotherapy or TAU)
+Outcome: 
+Low risk (Validated PTSD
+symptom severity measurement scales) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some concerns
+Three studies not included in the meta-analysis due to insufficient data
+. 
+</t>
   </si>
 </sst>
 </file>
@@ -446,7 +471,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,10 +487,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -480,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -491,10 +516,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
